--- a/test_file/case/OpenApiCase.xlsx
+++ b/test_file/case/OpenApiCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="16" activeTab="24"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="get_code" sheetId="7" r:id="rId1"/>
@@ -215,7 +215,7 @@
     <t>查询token剩余次数</t>
   </si>
   <si>
-    <t>{"token": "zBonLcBbJs"}</t>
+    <t>{"token": "2WEWHpLMc3"}</t>
   </si>
   <si>
     <t>通过txid查询交易的merkle路径</t>
@@ -304,10 +304,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -339,23 +339,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,6 +348,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,21 +369,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,27 +461,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,38 +475,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -491,31 +491,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,151 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,6 +695,71 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -726,72 +791,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,133 +815,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1595,8 +1595,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -2307,7 +2307,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/test_file/case/OpenApiCase.xlsx
+++ b/test_file/case/OpenApiCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="13" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="get_code" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="86">
   <si>
     <t>case_name</t>
   </si>
@@ -158,142 +158,142 @@
     <t>[{"address": "1Kw3uztoZ2uigr768W34N5G8aCPbKpt2Bp","amount": 1000}]</t>
   </si>
   <si>
-    <t>appid</t>
-  </si>
-  <si>
-    <t>appsecret</t>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>查询托管账户地址</t>
+  </si>
+  <si>
+    <t>{"appid": "0d158bc3605fffe30f7046f0c9c7e4bf", "appsecret": "e9943b6b167554fe555e39c1428c1d86"}</t>
+  </si>
+  <si>
+    <t>{"coin_type": "BSV"}</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>查询托管账户余额</t>
+  </si>
+  <si>
+    <t>{"coin_type": "BSV", "data": "面对疾风吧", "data_type": 0}</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>561b756d12572020ea9a104c3441b71790acbbce95a6ddbf7e0630971af9424b</t>
+  </si>
+  <si>
+    <t>免费获取token</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{"appid":"0d158bc3605fffe30f7046f0c9c7e4bf","appsecret":"e9943b6b167554fe555e39c1428c1d86"}</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>查询token剩余次数</t>
+  </si>
+  <si>
+    <t>{"token": "2WEWHpLMc3"}</t>
+  </si>
+  <si>
+    <t>通过txid查询交易的merkle路径</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{"token": "d933134cd7a03a80e50e38105307657fb45c8f419c93a42bb5d8c99a94dc6206"}</t>
+  </si>
+  <si>
+    <t>{"txid": "7ae2ab185a6e501753f6e29e5b6a98ba040098acb7c11ffed9430f22ed5263a3"}</t>
+  </si>
+  <si>
+    <t>通过区块 hash 获取 raw block header</t>
+  </si>
+  <si>
+    <t>{"blockhash": "000000000000000000ceac4238c38cd7f7e9de06666ebd7b68345eb5f2147a2e"}</t>
+  </si>
+  <si>
+    <t>通过 txid 查询交易信息</t>
+  </si>
+  <si>
+    <t>{"txid": "79220cd658ba36ecf0aa9eb00537c688917c5f6f61414cf3eebeaa5c5037f9a9"}</t>
+  </si>
+  <si>
+    <t>地址信息查询</t>
+  </si>
+  <si>
+    <t>{"address": "1HXUapNdF2NcRJ5WGCbHCayZrxXfDojNgW"}</t>
+  </si>
+  <si>
+    <t>地址 utxo 查询</t>
+  </si>
+  <si>
+    <t>{"address": "1HXUapNdF2NcRJ5WGCbHCayZrxXfDojNgW", "offset": 2, "limit": 3}</t>
+  </si>
+  <si>
+    <t>地址流水查询</t>
+  </si>
+  <si>
+    <t>{"address": "18gg1B1ZCX125roLZzwrCVwn6M5xeJpA3a", "offset": 1, "limit": 10}</t>
+  </si>
+  <si>
+    <t>根据 hash 查询区块信息</t>
+  </si>
+  <si>
+    <t>{"hash": "000000000000000000ceac4238c38cd7f7e9de06666ebd7b68345eb5f2147a2e"}</t>
+  </si>
+  <si>
+    <t>根据高度查询区块信息</t>
+  </si>
+  <si>
+    <t>{"height": 643772}</t>
+  </si>
+  <si>
+    <t>{"height": 643772, "offset": 1, "limit": 2}</t>
+  </si>
+  <si>
+    <t>获取区块交易列表</t>
+  </si>
+  <si>
+    <t>{"hash": "00000000000000000080a268f9d00b7e05a3362884cd525fa540308205af8e04", "offset": 1, "limit": 5}</t>
+  </si>
+  <si>
+    <t>查询区块链的一些基础信息</t>
   </si>
   <si>
     <t>coin_type</t>
   </si>
   <si>
-    <t>查询托管账户地址</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>sign_callback</t>
+  </si>
+  <si>
+    <t>打点钱包用户数据上链接口</t>
   </si>
   <si>
     <t>BSV</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>app_secret</t>
-  </si>
-  <si>
-    <t>查询托管账户余额</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>data_type</t>
+    <t>13882618810@163.com</t>
   </si>
   <si>
     <t>面对疾风吧</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>561b756d12572020ea9a104c3441b71790acbbce95a6ddbf7e0630971af9424b</t>
-  </si>
-  <si>
-    <t>headers</t>
-  </si>
-  <si>
-    <t>免费获取token</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>{"appid":"0d158bc3605fffe30f7046f0c9c7e4bf","appsecret":"e9943b6b167554fe555e39c1428c1d86"}</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>查询token剩余次数</t>
-  </si>
-  <si>
-    <t>{"token": "2WEWHpLMc3"}</t>
-  </si>
-  <si>
-    <t>通过txid查询交易的merkle路径</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>{"token": "d933134cd7a03a80e50e38105307657fb45c8f419c93a42bb5d8c99a94dc6206"}</t>
-  </si>
-  <si>
-    <t>{"txid": "7ae2ab185a6e501753f6e29e5b6a98ba040098acb7c11ffed9430f22ed5263a3"}</t>
-  </si>
-  <si>
-    <t>通过区块 hash 获取 raw block header</t>
-  </si>
-  <si>
-    <t>{"blockhash": "000000000000000000ceac4238c38cd7f7e9de06666ebd7b68345eb5f2147a2e"}</t>
-  </si>
-  <si>
-    <t>通过 txid 查询交易信息</t>
-  </si>
-  <si>
-    <t>{"txid": "79220cd658ba36ecf0aa9eb00537c688917c5f6f61414cf3eebeaa5c5037f9a9"}</t>
-  </si>
-  <si>
-    <t>地址信息查询</t>
-  </si>
-  <si>
-    <t>{"address": "1HXUapNdF2NcRJ5WGCbHCayZrxXfDojNgW"}</t>
-  </si>
-  <si>
-    <t>地址 utxo 查询</t>
-  </si>
-  <si>
-    <t>{"address": "1HXUapNdF2NcRJ5WGCbHCayZrxXfDojNgW", "offset": 2, "limit": 3}</t>
-  </si>
-  <si>
-    <t>地址流水查询</t>
-  </si>
-  <si>
-    <t>{"address": "18gg1B1ZCX125roLZzwrCVwn6M5xeJpA3a", "offset": 1, "limit": 10}</t>
-  </si>
-  <si>
-    <t>根据 hash 查询区块信息</t>
-  </si>
-  <si>
-    <t>{"hash": "000000000000000000ceac4238c38cd7f7e9de06666ebd7b68345eb5f2147a2e"}</t>
-  </si>
-  <si>
-    <t>根据高度查询区块信息</t>
-  </si>
-  <si>
-    <t>{"height": 643772}</t>
-  </si>
-  <si>
-    <t>{"height": 643772, "offset": 1, "limit": 2}</t>
-  </si>
-  <si>
-    <t>获取区块交易列表</t>
-  </si>
-  <si>
-    <t>{"hash": "00000000000000000080a268f9d00b7e05a3362884cd525fa540308205af8e04", "offset": 1, "limit": 5}</t>
-  </si>
-  <si>
-    <t>查询区块链的一些基础信息</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>sign_callback</t>
-  </si>
-  <si>
-    <t>打点钱包用户数据上链接口</t>
-  </si>
-  <si>
-    <t>13882618810@163.com</t>
   </si>
   <si>
     <t>https://prerelease.ddpurse.com/</t>
@@ -305,9 +305,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -333,14 +333,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,7 +347,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,8 +399,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,38 +455,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,51 +469,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -491,73 +491,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,109 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,11 +698,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,17 +746,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,16 +767,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,24 +795,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -803,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,133 +815,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1331,21 +1331,21 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="4" max="5" width="36" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,41 +1353,35 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1400,21 +1394,21 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="4" max="7" width="36" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1422,53 +1416,35 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1502,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1513,13 +1489,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -1558,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1569,13 +1545,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -1595,7 +1571,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1614,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1625,13 +1601,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -1667,10 +1643,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -1681,16 +1657,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -1726,10 +1702,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -1740,16 +1716,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -1785,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -1799,16 +1775,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -1844,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -1858,16 +1834,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -1903,10 +1879,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -1917,16 +1893,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2027,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2041,16 +2017,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2087,10 +2063,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2101,16 +2077,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2147,10 +2123,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2161,16 +2137,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2207,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2221,16 +2197,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2248,7 +2224,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -2267,10 +2243,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2281,16 +2257,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2308,7 +2284,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -2326,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -2337,13 +2313,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2381,19 +2357,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -2404,19 +2380,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>
@@ -2841,21 +2817,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="4" max="5" width="36" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2869,35 +2845,29 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
     </row>

--- a/test_file/case/OpenApiCase.xlsx
+++ b/test_file/case/OpenApiCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="8" activeTab="10"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="get_code" sheetId="7" r:id="rId1"/>
@@ -13,33 +13,37 @@
     <sheet name="refresh_access_token" sheetId="10" r:id="rId4"/>
     <sheet name="check_access_token" sheetId="11" r:id="rId5"/>
     <sheet name="apply_order" sheetId="12" r:id="rId6"/>
-    <sheet name="set_pay_config" sheetId="13" r:id="rId7"/>
-    <sheet name="pay_small_money" sheetId="14" r:id="rId8"/>
-    <sheet name="get_hosted_account" sheetId="15" r:id="rId9"/>
-    <sheet name="get_hosted_account_balance" sheetId="16" r:id="rId10"/>
-    <sheet name="push_chain_data" sheetId="18" r:id="rId11"/>
-    <sheet name="feeQuote" sheetId="17" r:id="rId12"/>
-    <sheet name="token" sheetId="19" r:id="rId13"/>
-    <sheet name="count" sheetId="20" r:id="rId14"/>
-    <sheet name="merkle" sheetId="21" r:id="rId15"/>
-    <sheet name="blockheader" sheetId="22" r:id="rId16"/>
-    <sheet name="transaction" sheetId="23" r:id="rId17"/>
-    <sheet name="info" sheetId="24" r:id="rId18"/>
-    <sheet name="utxo" sheetId="25" r:id="rId19"/>
-    <sheet name="inventory" sheetId="26" r:id="rId20"/>
-    <sheet name="hash" sheetId="27" r:id="rId21"/>
-    <sheet name="height" sheetId="28" r:id="rId22"/>
-    <sheet name="heights" sheetId="29" r:id="rId23"/>
-    <sheet name="transaction_block" sheetId="31" r:id="rId24"/>
-    <sheet name="info_chain" sheetId="30" r:id="rId25"/>
-    <sheet name="push_chain_data_dotwallet" sheetId="32" r:id="rId26"/>
+    <sheet name="create_order" sheetId="35" r:id="rId7"/>
+    <sheet name="search_order" sheetId="36" r:id="rId8"/>
+    <sheet name="set_pay_config" sheetId="13" r:id="rId9"/>
+    <sheet name="pay_small_money" sheetId="14" r:id="rId10"/>
+    <sheet name="get_hosted_account" sheetId="15" r:id="rId11"/>
+    <sheet name="get_hosted_account_balance" sheetId="16" r:id="rId12"/>
+    <sheet name="push_chain_data" sheetId="18" r:id="rId13"/>
+    <sheet name="feeQuote" sheetId="17" r:id="rId14"/>
+    <sheet name="tx_hash" sheetId="33" r:id="rId15"/>
+    <sheet name="tx_Rawtx" sheetId="34" r:id="rId16"/>
+    <sheet name="token" sheetId="19" r:id="rId17"/>
+    <sheet name="count" sheetId="20" r:id="rId18"/>
+    <sheet name="merkle" sheetId="21" r:id="rId19"/>
+    <sheet name="blockheader" sheetId="22" r:id="rId20"/>
+    <sheet name="transaction" sheetId="23" r:id="rId21"/>
+    <sheet name="info" sheetId="24" r:id="rId22"/>
+    <sheet name="utxo" sheetId="25" r:id="rId23"/>
+    <sheet name="inventory" sheetId="26" r:id="rId24"/>
+    <sheet name="hash" sheetId="27" r:id="rId25"/>
+    <sheet name="height" sheetId="28" r:id="rId26"/>
+    <sheet name="heights" sheetId="29" r:id="rId27"/>
+    <sheet name="transaction_block" sheetId="31" r:id="rId28"/>
+    <sheet name="info_chain" sheetId="30" r:id="rId29"/>
+    <sheet name="push_chain_data_dotwallet" sheetId="32" r:id="rId30"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="89">
   <si>
     <t>case_name</t>
   </si>
@@ -137,22 +141,28 @@
     <t>1000</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>appsecret</t>
+  </si>
+  <si>
+    <t>{"nonce_str":"1595558549178", "merchant_order_sn":"d9c454d5-3f18-432c-937f-697c2d4817bb", "order_amount":600,"sign":"", "notice_uri":"http://localhost.com:8002", "item_name":"商品名称:一个苹果", "check_order_uri":"http://localhost.com:8003", "opreturn":"这是一笔普了一个苹果", "redirect_uri":"http://localhost.com:8001", "app_id":"0d158bc3605fffe30f7046f0c9c7e4bf", "receive_address":"[{\"address\":\"19ncrjsYsF2L2QNLViLQmbySXpMcafgm5N\",\"amount\":600}]"}</t>
+  </si>
+  <si>
+    <t>查看订单状态</t>
+  </si>
+  <si>
+    <t>{"app_id":"0d158bc3605fffe30f7046f0c9c7e4bf","secret":"e9943b6b167554fe555e39c1428c1d86","merchant_order_sn":"cdc74ed4-cd63-11ea-b79a-00cfe04a592d"}</t>
+  </si>
+  <si>
     <t>用户开通小额自动字符</t>
   </si>
   <si>
-    <t xml:space="preserve">pre_amount </t>
-  </si>
-  <si>
-    <t>user_open_id</t>
-  </si>
-  <si>
     <t>发起小额支付</t>
   </si>
   <si>
-    <t>6b17507f12017193637fb74f4e58c5b3</t>
-  </si>
-  <si>
-    <t>奥力给</t>
+    <t>{"app_id": "0d158bc3605fffe30f7046f0c9c7e4bf", "secret": "e9943b6b167554fe555e39c1428c1d86",  "pre_amount": 1000, "user_open_id": "6b17507f12017193637fb74f4e58c5b3", "item_name": "奥力给"}</t>
   </si>
   <si>
     <t>[{"address": "1Kw3uztoZ2uigr768W34N5G8aCPbKpt2Bp","amount": 1000}]</t>
@@ -161,9 +171,6 @@
     <t>headers</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>查询托管账户地址</t>
   </si>
   <si>
@@ -182,10 +189,16 @@
     <t>{"coin_type": "BSV", "data": "面对疾风吧", "data_type": 0}</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>561b756d12572020ea9a104c3441b71790acbbce95a6ddbf7e0630971af9424b</t>
+    <t>{"token":"561b756d12572020ea9a104c3441b71790acbbce95a6ddbf7e0630971af9424b"}</t>
+  </si>
+  <si>
+    <t>查询交易状态</t>
+  </si>
+  <si>
+    <t>{"hash":"000000000000000000ceac4238c38cd7f7e9de06666ebd7b68345eb5f2147a2e"}</t>
+  </si>
+  <si>
+    <t>发送交易 Rawtx</t>
   </si>
   <si>
     <t>免费获取token</t>
@@ -305,11 +318,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,19 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF111F2C"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -346,8 +346,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,17 +408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,10 +423,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,24 +438,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,26 +469,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -491,19 +498,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,163 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,6 +702,21 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -732,16 +754,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,31 +789,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,10 +810,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,133 +822,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -952,10 +959,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1331,6 +1338,133 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:6">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1353,10 +1487,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -1367,22 +1501,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1391,12 +1525,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1416,10 +1550,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -1430,22 +1564,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1454,13 +1588,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1478,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1489,10 +1623,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
@@ -1501,7 +1635,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1510,13 +1644,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="4" width="35.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="4" width="35.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1534,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1545,19 +1803,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -1590,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1601,13 +1859,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -1619,7 +1877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -1643,10 +1901,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -1657,252 +1915,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="35.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="35.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="35.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="35.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -1985,6 +2007,242 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="4" width="35.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="4" width="35.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="4" width="35.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="4" width="35.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2003,10 +2261,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2017,16 +2275,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2038,13 +2296,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -2063,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2077,16 +2335,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2098,7 +2356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2123,10 +2381,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2137,16 +2395,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2158,7 +2416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2183,10 +2441,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2197,16 +2455,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2218,7 +2476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2243,10 +2501,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2257,16 +2515,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2278,7 +2536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -2302,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -2313,13 +2571,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -2331,7 +2589,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
@@ -2357,19 +2666,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -2380,78 +2689,27 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2674,10 +2932,124 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="4" width="35.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="229.5" spans="1:5">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="1:4">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2704,7 +3076,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2714,161 +3086,6 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="32.125" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" ht="54" spans="1:10">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/test_file/case/OpenApiCase.xlsx
+++ b/test_file/case/OpenApiCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="5" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="get_code" sheetId="7" r:id="rId1"/>
@@ -14,36 +14,37 @@
     <sheet name="check_access_token" sheetId="11" r:id="rId5"/>
     <sheet name="apply_order" sheetId="12" r:id="rId6"/>
     <sheet name="create_order" sheetId="35" r:id="rId7"/>
-    <sheet name="search_order" sheetId="36" r:id="rId8"/>
-    <sheet name="set_pay_config" sheetId="13" r:id="rId9"/>
-    <sheet name="pay_small_money" sheetId="14" r:id="rId10"/>
-    <sheet name="get_hosted_account" sheetId="15" r:id="rId11"/>
-    <sheet name="get_hosted_account_balance" sheetId="16" r:id="rId12"/>
-    <sheet name="push_chain_data" sheetId="18" r:id="rId13"/>
-    <sheet name="feeQuote" sheetId="17" r:id="rId14"/>
-    <sheet name="tx_hash" sheetId="33" r:id="rId15"/>
-    <sheet name="tx_Rawtx" sheetId="34" r:id="rId16"/>
-    <sheet name="token" sheetId="19" r:id="rId17"/>
-    <sheet name="count" sheetId="20" r:id="rId18"/>
-    <sheet name="merkle" sheetId="21" r:id="rId19"/>
-    <sheet name="blockheader" sheetId="22" r:id="rId20"/>
-    <sheet name="transaction" sheetId="23" r:id="rId21"/>
-    <sheet name="info" sheetId="24" r:id="rId22"/>
-    <sheet name="utxo" sheetId="25" r:id="rId23"/>
-    <sheet name="inventory" sheetId="26" r:id="rId24"/>
-    <sheet name="hash" sheetId="27" r:id="rId25"/>
-    <sheet name="height" sheetId="28" r:id="rId26"/>
-    <sheet name="heights" sheetId="29" r:id="rId27"/>
-    <sheet name="transaction_block" sheetId="31" r:id="rId28"/>
-    <sheet name="info_chain" sheetId="30" r:id="rId29"/>
-    <sheet name="push_chain_data_dotwallet" sheetId="32" r:id="rId30"/>
+    <sheet name="order" sheetId="37" r:id="rId8"/>
+    <sheet name="search_order" sheetId="36" r:id="rId9"/>
+    <sheet name="set_pay_config" sheetId="13" r:id="rId10"/>
+    <sheet name="pay_small_money" sheetId="14" r:id="rId11"/>
+    <sheet name="get_hosted_account" sheetId="15" r:id="rId12"/>
+    <sheet name="get_hosted_account_balance" sheetId="16" r:id="rId13"/>
+    <sheet name="push_chain_data" sheetId="18" r:id="rId14"/>
+    <sheet name="feeQuote" sheetId="17" r:id="rId15"/>
+    <sheet name="tx_hash" sheetId="33" r:id="rId16"/>
+    <sheet name="tx_Rawtx" sheetId="34" r:id="rId17"/>
+    <sheet name="token" sheetId="19" r:id="rId18"/>
+    <sheet name="count" sheetId="20" r:id="rId19"/>
+    <sheet name="merkle" sheetId="21" r:id="rId20"/>
+    <sheet name="blockheader" sheetId="22" r:id="rId21"/>
+    <sheet name="transaction" sheetId="23" r:id="rId22"/>
+    <sheet name="info" sheetId="24" r:id="rId23"/>
+    <sheet name="utxo" sheetId="25" r:id="rId24"/>
+    <sheet name="inventory" sheetId="26" r:id="rId25"/>
+    <sheet name="hash" sheetId="27" r:id="rId26"/>
+    <sheet name="height" sheetId="28" r:id="rId27"/>
+    <sheet name="heights" sheetId="29" r:id="rId28"/>
+    <sheet name="transaction_block" sheetId="31" r:id="rId29"/>
+    <sheet name="info_chain" sheetId="30" r:id="rId30"/>
+    <sheet name="push_chain_data_dotwallet" sheetId="32" r:id="rId31"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="90">
   <si>
     <t>case_name</t>
   </si>
@@ -148,6 +149,9 @@
   </si>
   <si>
     <t>{"nonce_str":"1595558549178", "merchant_order_sn":"d9c454d5-3f18-432c-937f-697c2d4817bb", "order_amount":600,"sign":"", "notice_uri":"http://localhost.com:8002", "item_name":"商品名称:一个苹果", "check_order_uri":"http://localhost.com:8003", "opreturn":"这是一笔普了一个苹果", "redirect_uri":"http://localhost.com:8001", "app_id":"0d158bc3605fffe30f7046f0c9c7e4bf", "receive_address":"[{\"address\":\"19ncrjsYsF2L2QNLViLQmbySXpMcafgm5N\",\"amount\":600}]"}</t>
+  </si>
+  <si>
+    <t>成功获取 order_sn 后，客户端跳转到打点钱包进行支付</t>
   </si>
   <si>
     <t>查看订单状态</t>
@@ -317,9 +321,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -341,29 +345,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +381,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -410,6 +443,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,43 +486,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -498,7 +502,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +580,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,61 +652,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,79 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,6 +709,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -720,25 +739,36 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -776,32 +806,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -810,10 +814,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,133 +826,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1338,6 +1342,57 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1378,16 +1433,16 @@
     </row>
     <row r="2" ht="108" spans="1:6">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>
@@ -1399,7 +1454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -1424,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1438,22 +1493,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -1487,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1501,22 +1556,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -1550,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1564,22 +1619,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -1612,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1623,19 +1678,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1644,7 +1699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -1668,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1682,22 +1737,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1706,7 +1761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -1730,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1744,22 +1799,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1768,7 +1823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -1792,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1803,19 +1858,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1824,7 +1879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -1848,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1859,74 +1914,15 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="35.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2007,6 +2003,65 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="4" width="35.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2025,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2039,16 +2094,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2060,7 +2115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2084,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2098,16 +2153,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2119,13 +2174,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -2143,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2157,16 +2212,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2178,7 +2233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2202,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2216,16 +2271,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2237,7 +2292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2261,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2275,16 +2330,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2296,7 +2351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2321,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2335,16 +2390,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2356,7 +2411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2381,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2395,16 +2450,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2416,7 +2471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2441,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2455,16 +2510,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -2476,7 +2531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2501,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2515,71 +2570,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2643,6 +2645,59 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2666,19 +2721,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -2689,25 +2744,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>15</v>
@@ -2992,9 +3047,56 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3025,67 +3127,16 @@
     </row>
     <row r="2" ht="67.5" spans="1:4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test_file/case/OpenApiCase.xlsx
+++ b/test_file/case/OpenApiCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="get_code" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="90">
   <si>
     <t>case_name</t>
   </si>
@@ -220,7 +220,7 @@
     <t>查询token剩余次数</t>
   </si>
   <si>
-    <t>{"token": "2WEWHpLMc3"}</t>
+    <t>{"token": "lb8HfXgI31"}</t>
   </si>
   <si>
     <t>通过txid查询交易的merkle路径</t>
@@ -343,10 +343,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,35 +369,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,8 +413,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,10 +459,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,40 +473,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,7 +502,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +562,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,19 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,139 +676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +706,39 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -739,50 +772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -806,6 +795,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -814,10 +814,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,133 +826,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1884,8 +1884,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -2118,13 +2118,13 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -2168,6 +2168,23 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2177,13 +2194,13 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -2224,6 +2241,23 @@
         <v>68</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2295,13 +2329,13 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -2342,6 +2376,23 @@
         <v>72</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3049,7 +3100,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>

--- a/test_file/case/OpenApiCase.xlsx
+++ b/test_file/case/OpenApiCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="14" activeTab="18"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="get_code" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="90">
   <si>
     <t>case_name</t>
   </si>
@@ -73,10 +73,10 @@
     <t>secret</t>
   </si>
   <si>
+    <t>code01</t>
+  </si>
+  <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>code_res</t>
   </si>
   <si>
     <t>msg</t>
@@ -321,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -344,10 +344,68 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,14 +414,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,7 +433,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -391,7 +465,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,80 +486,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -502,13 +502,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,19 +628,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,73 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,67 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,9 +711,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,6 +740,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,17 +774,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,21 +798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -795,17 +806,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -814,10 +814,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,133 +826,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1425,7 +1425,7 @@
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1485,7 +1485,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -1548,7 +1548,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -1670,7 +1670,7 @@
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1729,7 +1729,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -1791,7 +1791,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -1850,7 +1850,7 @@
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1884,7 +1884,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1906,7 +1906,7 @@
         <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1937,8 +1937,8 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1986,6 +1986,9 @@
       </c>
       <c r="D2" t="s">
         <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>
@@ -2027,7 +2030,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -2086,7 +2089,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -2145,7 +2148,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -2221,7 +2224,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -2297,7 +2300,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -2356,7 +2359,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -2433,7 +2436,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -2493,7 +2496,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -2553,7 +2556,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -2613,7 +2616,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -2670,7 +2673,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -2720,7 +2723,7 @@
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -2787,7 +2790,7 @@
         <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -2856,7 +2859,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -2913,7 +2916,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -3003,7 +3006,7 @@
         <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -3066,7 +3069,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -3119,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -3170,7 +3173,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
